--- a/medicine/Bioéthique/Fred_Rosner/Fred_Rosner.xlsx
+++ b/medicine/Bioéthique/Fred_Rosner/Fred_Rosner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fred Rosner, né le 3 octobre 1935 à Berlin, en Allemagne est un médecin américain d'origine allemande, juif orthodoxe, professeur de médecine à Mount Sinai School of Medicine à New York, directeur du département de médecine du  Queens Hospital Center. Il est un expert en éthique médicale juive.
 </t>
@@ -511,12 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fred Rosner est né le 3 octobre 1935 à Berlin, en Allemagne. À l'âge de 3 ans, avec son frère, il quitte l'Allemagne pour le Royaume-Uni par le dernier bateau affrété pour le Kindertransport.
-New York
-Après la Seconde Guerre mondiale, il immigre aux États-Unis. 
-Il étudie à l'université Yeshiva de New York. Il finit ses études de médecine (M.D.) au Albert Einstein College of Medicine, avec la première classe terminale de 1959.
 </t>
         </is>
       </c>
@@ -542,12 +553,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la Seconde Guerre mondiale, il immigre aux États-Unis. 
+Il étudie à l'université Yeshiva de New York. Il finit ses études de médecine (M.D.) au Albert Einstein College of Medicine, avec la première classe terminale de 1959.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fred_Rosner</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fred_Rosner</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(en) The Existence and Unity of God[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) The Existence and Unity of God.
 (en) Encyclopedia of Jewish Medical Ethics.
 (en) Medicine in the Mishneh Torah of Maimonides.
 (en) Medicine and the Jewish Law.
